--- a/output/1Y_P88_1VAL-D.xlsx
+++ b/output/1Y_P88_1VAL-D.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
   <si>
     <t>NAV</t>
   </si>
@@ -34,16 +34,22 @@
     <t>Offer Price</t>
   </si>
   <si>
-    <t>Required Value</t>
+    <t>Shares Owned</t>
   </si>
   <si>
     <t>Shares Bought</t>
   </si>
   <si>
-    <t>Shares Owned</t>
+    <t>Required Value</t>
   </si>
   <si>
     <t>Portfolio Value</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Wealth</t>
   </si>
   <si>
     <t>Total Cost</t>
@@ -64,10 +70,7 @@
     <t>CFI</t>
   </si>
   <si>
-    <t>Net Cash</t>
-  </si>
-  <si>
-    <t>Net Wealth</t>
+    <t>TWR</t>
   </si>
   <si>
     <t>Period</t>
@@ -648,24 +651,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -713,7 +716,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -729,41 +732,35 @@
       <c r="D2" s="1">
         <v>16.743</v>
       </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
       <c r="F2" s="1">
         <v>597.2645</v>
       </c>
-      <c r="G2" s="1">
-        <v>597.2645</v>
-      </c>
       <c r="H2" s="1">
-        <v>9948.1574</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>16.743</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1574</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -779,41 +776,41 @@
       <c r="D3" s="1">
         <v>17.6195</v>
       </c>
+      <c r="E3" s="1">
+        <v>597.2645</v>
+      </c>
       <c r="F3" s="1">
         <v>567.553</v>
       </c>
-      <c r="G3" s="1">
-        <v>1164.8175</v>
-      </c>
       <c r="H3" s="1">
-        <v>20417.038</v>
+        <v>10468.9124</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>17.1701</v>
+        <v>10468.9124</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>16.743</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20417.038</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0235</v>
+        <v>0.0469</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -829,38 +826,38 @@
       <c r="D4" s="1">
         <v>17.6646</v>
       </c>
+      <c r="E4" s="1">
+        <v>1164.8175</v>
+      </c>
       <c r="F4" s="1">
         <v>566.104</v>
       </c>
-      <c r="G4" s="1">
-        <v>1730.9215</v>
-      </c>
       <c r="H4" s="1">
-        <v>30417.4832</v>
+        <v>20469.3383</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>17.3318</v>
+        <v>20469.3383</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>17.1701</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>30417.4832</v>
       </c>
       <c r="Q4" s="3">
         <v>0</v>
@@ -879,41 +876,41 @@
       <c r="D5" s="1">
         <v>17.2588</v>
       </c>
+      <c r="E5" s="1">
+        <v>1730.9215</v>
+      </c>
       <c r="F5" s="1">
         <v>579.4146</v>
       </c>
-      <c r="G5" s="1">
-        <v>2310.336</v>
-      </c>
       <c r="H5" s="1">
-        <v>39666.8526</v>
+        <v>29718.7102</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>17.3135</v>
+        <v>29718.7102</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>17.3318</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>39666.8526</v>
-      </c>
       <c r="Q5" s="3">
-        <v>-0.0186</v>
+        <v>-0.0246</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -929,41 +926,41 @@
       <c r="D6" s="1">
         <v>16.8469</v>
       </c>
+      <c r="E6" s="1">
+        <v>2310.336</v>
+      </c>
       <c r="F6" s="1">
         <v>593.581</v>
       </c>
-      <c r="G6" s="1">
-        <v>2903.9171</v>
-      </c>
       <c r="H6" s="1">
-        <v>48668.4883</v>
+        <v>38720.3079</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>17.2181</v>
+        <v>38720.3079</v>
       </c>
       <c r="K6" s="1">
+        <v>40000</v>
+      </c>
+      <c r="L6" s="1">
+        <v>17.3135</v>
+      </c>
+      <c r="M6" s="1">
         <v>0.47</v>
       </c>
-      <c r="L6" s="1">
-        <v>977.2721</v>
-      </c>
-      <c r="M6" s="1">
-        <v>10000</v>
-      </c>
       <c r="N6" s="1">
-        <v>-9022.7279</v>
+        <v>732.1798</v>
       </c>
       <c r="O6" s="1">
-        <v>977.2721</v>
+        <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>49645.7605</v>
+        <v>-9267.8202</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0004</v>
+        <v>-0.0251</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -979,41 +976,41 @@
       <c r="D7" s="1">
         <v>16.9739</v>
       </c>
+      <c r="E7" s="1">
+        <v>2903.9171</v>
+      </c>
       <c r="F7" s="1">
-        <v>597.3647999999999</v>
-      </c>
-      <c r="G7" s="1">
-        <v>3501.2819</v>
+        <v>595.302</v>
       </c>
       <c r="H7" s="1">
-        <v>59121.9451</v>
+        <v>49034.9626</v>
       </c>
       <c r="I7" s="1">
-        <v>60139.6103</v>
+        <v>732.1798</v>
       </c>
       <c r="J7" s="1">
-        <v>17.1765</v>
+        <v>49767.1424</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50104.5971</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>17.2541</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
-        <v>-10139.6103</v>
+        <v>0</v>
       </c>
       <c r="O7" s="1">
-        <v>837.6618</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>59959.607</v>
+        <v>-10104.5971</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0053</v>
+        <v>0.0215</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1029,41 +1026,41 @@
       <c r="D8" s="1">
         <v>17.6787</v>
       </c>
+      <c r="E8" s="1">
+        <v>3499.2191</v>
+      </c>
       <c r="F8" s="1">
-        <v>573.5495</v>
-      </c>
-      <c r="G8" s="1">
-        <v>4074.8314</v>
+        <v>571.569</v>
       </c>
       <c r="H8" s="1">
-        <v>71664.0598</v>
+        <v>61540.7661</v>
       </c>
       <c r="I8" s="1">
-        <v>70279.2206</v>
+        <v>627.5827</v>
       </c>
       <c r="J8" s="1">
-        <v>17.2471</v>
+        <v>62168.3488</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60209.1942</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>17.2065</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
-        <v>-10139.6103</v>
+        <v>0</v>
       </c>
       <c r="O8" s="1">
-        <v>698.0515</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>72362.1113</v>
+        <v>-10104.5971</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0343</v>
+        <v>0.0402</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1079,41 +1076,41 @@
       <c r="D9" s="1">
         <v>17.7792</v>
       </c>
+      <c r="E9" s="1">
+        <v>4070.7881</v>
+      </c>
       <c r="F9" s="1">
-        <v>570.3075</v>
-      </c>
-      <c r="G9" s="1">
-        <v>4645.1389</v>
+        <v>568.3381000000001</v>
       </c>
       <c r="H9" s="1">
-        <v>82158.57090000001</v>
+        <v>72000.0291</v>
       </c>
       <c r="I9" s="1">
-        <v>80418.8309</v>
+        <v>522.9856</v>
       </c>
       <c r="J9" s="1">
-        <v>17.3125</v>
+        <v>72523.0147</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70313.7913</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>17.2728</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>-10139.6103</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>558.4412</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>82717.01210000001</v>
+        <v>-10104.5971</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0043</v>
+        <v>0.0049</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1129,41 +1126,41 @@
       <c r="D10" s="1">
         <v>18.0055</v>
       </c>
+      <c r="E10" s="1">
+        <v>4639.1262</v>
+      </c>
       <c r="F10" s="1">
-        <v>563.1396</v>
-      </c>
-      <c r="G10" s="1">
-        <v>5208.2785</v>
+        <v>561.1950000000001</v>
       </c>
       <c r="H10" s="1">
-        <v>93291.7255</v>
+        <v>83096.9567</v>
       </c>
       <c r="I10" s="1">
-        <v>90558.4412</v>
+        <v>418.3884</v>
       </c>
       <c r="J10" s="1">
-        <v>17.3874</v>
+        <v>83515.34510000001</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80418.3884</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>17.3348</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>-10139.6103</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>418.8309</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>93710.5564</v>
+        <v>-10104.5971</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0107</v>
+        <v>0.012</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1179,41 +1176,41 @@
       <c r="D11" s="1">
         <v>18.1364</v>
       </c>
+      <c r="E11" s="1">
+        <v>5200.3213</v>
+      </c>
       <c r="F11" s="1">
-        <v>559.0751</v>
-      </c>
-      <c r="G11" s="1">
-        <v>5767.3536</v>
+        <v>557.1446</v>
       </c>
       <c r="H11" s="1">
-        <v>104056.3239</v>
+        <v>93825.7561</v>
       </c>
       <c r="I11" s="1">
-        <v>100698.0515</v>
+        <v>313.7913</v>
       </c>
       <c r="J11" s="1">
-        <v>17.46</v>
+        <v>94139.5474</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90522.9856</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>17.4072</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>-10139.6103</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>279.2206</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>104335.5445</v>
+        <v>-10104.5971</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.006</v>
+        <v>0.0067</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1229,41 +1226,41 @@
       <c r="D12" s="1">
         <v>18.2605</v>
       </c>
+      <c r="E12" s="1">
+        <v>5757.4658</v>
+      </c>
       <c r="F12" s="1">
-        <v>555.2756000000001</v>
-      </c>
-      <c r="G12" s="1">
-        <v>6322.6292</v>
+        <v>553.3582</v>
       </c>
       <c r="H12" s="1">
-        <v>114855.6178</v>
+        <v>104588.9729</v>
       </c>
       <c r="I12" s="1">
-        <v>110837.6618</v>
+        <v>209.1942</v>
       </c>
       <c r="J12" s="1">
-        <v>17.5303</v>
+        <v>104798.1672</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100627.5827</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>17.4778</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>-10139.6103</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>139.6103</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>114995.2281</v>
+        <v>-10104.5971</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0058</v>
+        <v>0.0063</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1279,41 +1276,41 @@
       <c r="D13" s="1">
         <v>18.0221</v>
       </c>
+      <c r="E13" s="1">
+        <v>6310.824</v>
+      </c>
       <c r="F13" s="1">
-        <v>562.6209</v>
-      </c>
-      <c r="G13" s="1">
-        <v>6885.2501</v>
+        <v>560.6781</v>
       </c>
       <c r="H13" s="1">
-        <v>123442.8954</v>
+        <v>113144.2396</v>
       </c>
       <c r="I13" s="1">
-        <v>120977.2721</v>
+        <v>104.5971</v>
       </c>
       <c r="J13" s="1">
-        <v>17.5705</v>
+        <v>113248.8367</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>110732.1798</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>17.5464</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-10139.6103</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>123442.8954</v>
+        <v>-10104.5971</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0124</v>
+        <v>-0.0135</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1329,41 +1326,41 @@
       <c r="D14" s="1">
         <v>18.2846</v>
       </c>
+      <c r="E14" s="1">
+        <v>6871.5021</v>
+      </c>
       <c r="F14" s="1">
-        <v>-6885.2501</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
+        <v>-6310.824</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>124991.2496</v>
       </c>
       <c r="I14" s="1">
-        <v>120977.2721</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>17.5705</v>
+        <v>124991.2496</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>110732.1798</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>16.1147</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>125241.3227</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>125241.3227</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>125241.3227</v>
+        <v>114792.6268</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0615</v>
+        <v>0.0141</v>
       </c>
     </row>
   </sheetData>
@@ -1383,24 +1380,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1448,7 +1445,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1465,43 +1462,37 @@
         <v>16.743</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>597.2645</v>
       </c>
       <c r="G2" s="1">
-        <v>597.2645</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.1574</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>16.743</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1574</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1518,43 +1509,43 @@
         <v>17.6195</v>
       </c>
       <c r="E3" s="1">
-        <v>20000</v>
+        <v>597.2645</v>
       </c>
       <c r="F3" s="1">
         <v>543.7605</v>
       </c>
       <c r="G3" s="1">
-        <v>1141.025</v>
+        <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>20000</v>
+        <v>10468.9124</v>
       </c>
       <c r="I3" s="1">
-        <v>19580.7873</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>17.1607</v>
+        <v>10468.9124</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9580.7873</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>16.0411</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9580.7873</v>
       </c>
-      <c r="O3" s="1">
-        <v>419.2127</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20419.2127</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0236</v>
+        <v>0.0469</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1571,43 +1562,43 @@
         <v>17.6646</v>
       </c>
       <c r="E4" s="1">
-        <v>30000</v>
+        <v>1141.025</v>
       </c>
       <c r="F4" s="1">
         <v>566.1394</v>
       </c>
       <c r="G4" s="1">
-        <v>1707.1644</v>
+        <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>30000</v>
+        <v>20051.232</v>
       </c>
       <c r="I4" s="1">
-        <v>29581.4137</v>
+        <v>419.2127</v>
       </c>
       <c r="J4" s="1">
-        <v>17.3278</v>
+        <v>20470.4447</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>19581.4137</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>17.1612</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000.6263</v>
       </c>
-      <c r="O4" s="1">
-        <v>418.5863</v>
-      </c>
-      <c r="P4" s="1">
-        <v>30418.5863</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1624,43 +1615,43 @@
         <v>17.2588</v>
       </c>
       <c r="E5" s="1">
-        <v>40000</v>
+        <v>1707.1644</v>
       </c>
       <c r="F5" s="1">
         <v>603.6681</v>
       </c>
       <c r="G5" s="1">
-        <v>2310.8325</v>
+        <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>39675.3758</v>
+        <v>29310.8177</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>418.5863</v>
       </c>
       <c r="J5" s="1">
-        <v>17.3098</v>
+        <v>29729.4041</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>17.573</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10418.5863</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>39675.3758</v>
-      </c>
       <c r="Q5" s="3">
-        <v>-0.0184</v>
+        <v>-0.0243</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1677,43 +1668,43 @@
         <v>16.8469</v>
       </c>
       <c r="E6" s="1">
-        <v>50000</v>
+        <v>2310.8325</v>
       </c>
       <c r="F6" s="1">
         <v>593.581</v>
       </c>
       <c r="G6" s="1">
-        <v>2904.4135</v>
+        <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>48676.8081</v>
+        <v>38728.6277</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>17.2152</v>
+        <v>38728.6277</v>
       </c>
       <c r="K6" s="1">
+        <v>40000</v>
+      </c>
+      <c r="L6" s="1">
+        <v>17.3098</v>
+      </c>
+      <c r="M6" s="1">
         <v>0.47</v>
       </c>
-      <c r="L6" s="1">
-        <v>977.4820999999999</v>
-      </c>
-      <c r="M6" s="1">
-        <v>10000</v>
-      </c>
       <c r="N6" s="1">
-        <v>-9022.517900000001</v>
+        <v>722.1305</v>
       </c>
       <c r="O6" s="1">
-        <v>977.4820999999999</v>
+        <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>49654.2902</v>
+        <v>-9277.869500000001</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0004</v>
+        <v>-0.0252</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1730,43 +1721,43 @@
         <v>16.9739</v>
       </c>
       <c r="E7" s="1">
+        <v>2904.4135</v>
+      </c>
+      <c r="F7" s="1">
+        <v>631.6834</v>
+      </c>
+      <c r="G7" s="1">
         <v>60000</v>
       </c>
-      <c r="F7" s="1">
-        <v>648.8680000000001</v>
-      </c>
-      <c r="G7" s="1">
-        <v>3553.2815</v>
-      </c>
       <c r="H7" s="1">
-        <v>60000</v>
+        <v>49043.3451</v>
       </c>
       <c r="I7" s="1">
-        <v>61013.8202</v>
+        <v>722.1305</v>
       </c>
       <c r="J7" s="1">
-        <v>17.1711</v>
+        <v>49765.4756</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50722.1305</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>17.4638</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
-        <v>-11013.8202</v>
+        <v>0</v>
       </c>
       <c r="O7" s="1">
-        <v>-36.3381</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>59963.6619</v>
+        <v>-10722.1305</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0052</v>
+        <v>0.0213</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1783,43 +1774,43 @@
         <v>17.6787</v>
       </c>
       <c r="E8" s="1">
+        <v>3536.0969</v>
+      </c>
+      <c r="F8" s="1">
+        <v>444.1158</v>
+      </c>
+      <c r="G8" s="1">
         <v>70000</v>
       </c>
-      <c r="F8" s="1">
-        <v>426.9312</v>
-      </c>
-      <c r="G8" s="1">
-        <v>3980.2127</v>
-      </c>
       <c r="H8" s="1">
-        <v>70000</v>
+        <v>62189.3354</v>
       </c>
       <c r="I8" s="1">
-        <v>68561.4088</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>17.2256</v>
+        <v>62189.3354</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>58573.5205</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>16.5645</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
-        <v>-7547.5886</v>
+        <v>0</v>
       </c>
       <c r="O8" s="1">
-        <v>2416.0733</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>72416.0733</v>
+        <v>-7851.39</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0351</v>
+        <v>0.0406</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1836,43 +1827,43 @@
         <v>17.7792</v>
       </c>
       <c r="E9" s="1">
-        <v>80000</v>
+        <v>3980.2127</v>
       </c>
       <c r="F9" s="1">
         <v>542.8834000000001</v>
       </c>
       <c r="G9" s="1">
-        <v>4523.0961</v>
+        <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>80000</v>
+        <v>70398.02129999999</v>
       </c>
       <c r="I9" s="1">
-        <v>78213.4414</v>
+        <v>2148.61</v>
       </c>
       <c r="J9" s="1">
-        <v>17.292</v>
+        <v>72546.63129999999</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>68225.5531</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>17.1412</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-9652.0326</v>
       </c>
-      <c r="O9" s="1">
-        <v>2764.0407</v>
-      </c>
-      <c r="P9" s="1">
-        <v>82764.0407</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0042</v>
+        <v>0.0049</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1889,43 +1880,43 @@
         <v>18.0055</v>
       </c>
       <c r="E10" s="1">
-        <v>90000</v>
+        <v>4523.0961</v>
       </c>
       <c r="F10" s="1">
         <v>501.4124</v>
       </c>
       <c r="G10" s="1">
-        <v>5024.5084</v>
+        <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>90000</v>
+        <v>81018.6012</v>
       </c>
       <c r="I10" s="1">
-        <v>87241.622</v>
+        <v>2496.5774</v>
       </c>
       <c r="J10" s="1">
-        <v>17.3632</v>
+        <v>83515.1786</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>77253.7337</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>17.0798</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-9028.1805</v>
       </c>
-      <c r="O10" s="1">
-        <v>3735.8602</v>
-      </c>
-      <c r="P10" s="1">
-        <v>93735.8602</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0105</v>
+        <v>0.0117</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1942,43 +1933,43 @@
         <v>18.1364</v>
       </c>
       <c r="E11" s="1">
-        <v>100000</v>
+        <v>5024.5084</v>
       </c>
       <c r="F11" s="1">
         <v>518.0222</v>
       </c>
       <c r="G11" s="1">
-        <v>5542.5306</v>
+        <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>100000</v>
+        <v>90653.6885</v>
       </c>
       <c r="I11" s="1">
-        <v>96636.6793</v>
+        <v>3468.3969</v>
       </c>
       <c r="J11" s="1">
-        <v>17.4355</v>
+        <v>94122.0854</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>86648.791</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>17.2452</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-9395.0573</v>
       </c>
-      <c r="O11" s="1">
-        <v>4340.8028</v>
-      </c>
-      <c r="P11" s="1">
-        <v>104340.8028</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0058</v>
+        <v>0.0065</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1995,43 +1986,43 @@
         <v>18.2605</v>
       </c>
       <c r="E12" s="1">
-        <v>110000</v>
+        <v>5542.5306</v>
       </c>
       <c r="F12" s="1">
         <v>512.8040999999999</v>
       </c>
       <c r="G12" s="1">
-        <v>6055.3347</v>
+        <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>110000</v>
+        <v>100684.5025</v>
       </c>
       <c r="I12" s="1">
-        <v>106000.7393</v>
+        <v>4073.3395</v>
       </c>
       <c r="J12" s="1">
-        <v>17.5053</v>
+        <v>104757.8421</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>96012.851</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>17.3229</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-9364.059999999999</v>
       </c>
-      <c r="O12" s="1">
-        <v>4976.7428</v>
-      </c>
-      <c r="P12" s="1">
-        <v>114976.7428</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0056</v>
+        <v>0.0061</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2048,43 +2039,43 @@
         <v>18.0221</v>
       </c>
       <c r="E13" s="1">
-        <v>120000</v>
+        <v>6055.3347</v>
       </c>
       <c r="F13" s="1">
         <v>637.8817</v>
       </c>
       <c r="G13" s="1">
-        <v>6693.2164</v>
+        <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>120000</v>
+        <v>108563.6746</v>
       </c>
       <c r="I13" s="1">
-        <v>117496.7067</v>
+        <v>4709.2795</v>
       </c>
       <c r="J13" s="1">
-        <v>17.5546</v>
+        <v>113272.9541</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>107508.8184</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>17.7544</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-11495.9673</v>
       </c>
-      <c r="O13" s="1">
-        <v>3480.7755</v>
-      </c>
-      <c r="P13" s="1">
-        <v>123480.7755</v>
-      </c>
       <c r="Q13" s="3">
-        <v>-0.012</v>
+        <v>-0.0129</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2101,7 +2092,7 @@
         <v>18.2846</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>6693.2164</v>
       </c>
       <c r="F14" s="1">
         <v>-6693.2164</v>
@@ -2110,34 +2101,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>121748.2681</v>
       </c>
       <c r="I14" s="1">
-        <v>117496.7067</v>
+        <v>3213.3122</v>
       </c>
       <c r="J14" s="1">
-        <v>17.5546</v>
+        <v>124961.5803</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>107508.8184</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>16.0624</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>121748.2681</v>
       </c>
-      <c r="O14" s="1">
-        <v>125229.0436</v>
-      </c>
-      <c r="P14" s="1">
-        <v>125229.0436</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.0618</v>
+        <v>0.0137</v>
       </c>
     </row>
   </sheetData>
@@ -2157,24 +2148,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2222,7 +2213,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -2239,43 +2230,37 @@
         <v>16.743</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>597.2645</v>
       </c>
       <c r="G2" s="1">
-        <v>597.2645</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.1574</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>16.743</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1574</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -2292,43 +2277,43 @@
         <v>17.6195</v>
       </c>
       <c r="E3" s="1">
-        <v>20050</v>
+        <v>597.2645</v>
       </c>
       <c r="F3" s="1">
         <v>546.6130000000001</v>
       </c>
       <c r="G3" s="1">
-        <v>1143.8775</v>
+        <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>20050</v>
+        <v>10468.9124</v>
       </c>
       <c r="I3" s="1">
-        <v>19631.048</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>17.1618</v>
+        <v>10468.9124</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9631.048000000001</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>16.1253</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9631.048000000001</v>
       </c>
-      <c r="O3" s="1">
-        <v>368.952</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20418.952</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0236</v>
+        <v>0.0469</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2345,43 +2330,43 @@
         <v>17.6646</v>
       </c>
       <c r="E4" s="1">
-        <v>30150.25</v>
+        <v>1143.8775</v>
       </c>
       <c r="F4" s="1">
         <v>571.8369</v>
       </c>
       <c r="G4" s="1">
-        <v>1715.7144</v>
+        <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>30150.25</v>
+        <v>20101.3601</v>
       </c>
       <c r="I4" s="1">
-        <v>29732.3182</v>
+        <v>368.952</v>
       </c>
       <c r="J4" s="1">
-        <v>17.3294</v>
+        <v>20470.3121</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>19732.3182</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>17.2504</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10101.2702</v>
       </c>
-      <c r="O4" s="1">
-        <v>267.6818</v>
-      </c>
-      <c r="P4" s="1">
-        <v>30417.9318</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2398,43 +2383,43 @@
         <v>17.2588</v>
       </c>
       <c r="E5" s="1">
-        <v>40301.0012</v>
+        <v>1715.7144</v>
       </c>
       <c r="F5" s="1">
         <v>594.9244</v>
       </c>
       <c r="G5" s="1">
-        <v>2310.6389</v>
+        <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>39672.0521</v>
+        <v>29457.6161</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>267.6818</v>
       </c>
       <c r="J5" s="1">
-        <v>17.3112</v>
+        <v>29725.2979</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>17.4854</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10267.6818</v>
       </c>
-      <c r="O5" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>39672.0521</v>
-      </c>
       <c r="Q5" s="3">
-        <v>-0.0185</v>
+        <v>-0.0245</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2451,43 +2436,43 @@
         <v>16.8469</v>
       </c>
       <c r="E6" s="1">
-        <v>50502.5063</v>
+        <v>2310.6389</v>
       </c>
       <c r="F6" s="1">
         <v>593.581</v>
       </c>
       <c r="G6" s="1">
-        <v>2904.2199</v>
+        <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>48673.5638</v>
+        <v>38725.3834</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>-0</v>
       </c>
       <c r="J6" s="1">
-        <v>17.2163</v>
+        <v>38725.3834</v>
       </c>
       <c r="K6" s="1">
+        <v>40000</v>
+      </c>
+      <c r="L6" s="1">
+        <v>17.3112</v>
+      </c>
+      <c r="M6" s="1">
         <v>0.47</v>
       </c>
-      <c r="L6" s="1">
-        <v>977.4002</v>
-      </c>
-      <c r="M6" s="1">
-        <v>10000</v>
-      </c>
       <c r="N6" s="1">
-        <v>-9022.5998</v>
+        <v>725.7472</v>
       </c>
       <c r="O6" s="1">
-        <v>977.4002</v>
+        <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>49650.964</v>
+        <v>-9274.2528</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0004</v>
+        <v>-0.0252</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2504,43 +2489,43 @@
         <v>16.9739</v>
       </c>
       <c r="E7" s="1">
+        <v>2904.2199</v>
+      </c>
+      <c r="F7" s="1">
+        <v>631.8964999999999</v>
+      </c>
+      <c r="G7" s="1">
         <v>60755.0188</v>
       </c>
-      <c r="F7" s="1">
-        <v>646.7223</v>
-      </c>
-      <c r="G7" s="1">
-        <v>3550.9422</v>
-      </c>
       <c r="H7" s="1">
-        <v>59960.5003</v>
+        <v>49040.0763</v>
       </c>
       <c r="I7" s="1">
-        <v>60977.4002</v>
+        <v>725.7472</v>
       </c>
       <c r="J7" s="1">
-        <v>17.1722</v>
+        <v>49765.8235</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50725.7472</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>17.4662</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
-        <v>-10977.4002</v>
+        <v>0</v>
       </c>
       <c r="O7" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>59960.5003</v>
+        <v>-10725.7472</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0052</v>
+        <v>0.0214</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2557,43 +2542,43 @@
         <v>17.6787</v>
       </c>
       <c r="E8" s="1">
+        <v>3536.1163</v>
+      </c>
+      <c r="F8" s="1">
+        <v>504.2995</v>
+      </c>
+      <c r="G8" s="1">
         <v>71058.7939</v>
       </c>
-      <c r="F8" s="1">
-        <v>489.4736</v>
-      </c>
-      <c r="G8" s="1">
-        <v>4040.4159</v>
-      </c>
       <c r="H8" s="1">
-        <v>71058.7939</v>
+        <v>62189.6782</v>
       </c>
       <c r="I8" s="1">
-        <v>69630.6578</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>17.2335</v>
+        <v>62189.6782</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>59641.1071</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>16.8663</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
-        <v>-8653.257600000001</v>
+        <v>0</v>
       </c>
       <c r="O8" s="1">
-        <v>1346.7424</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>72405.53630000001</v>
+        <v>-8915.359899999999</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0349</v>
+        <v>0.0406</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2610,43 +2595,43 @@
         <v>17.7792</v>
       </c>
       <c r="E9" s="1">
-        <v>81414.0879</v>
+        <v>4040.4159</v>
       </c>
       <c r="F9" s="1">
         <v>562.6309</v>
       </c>
       <c r="G9" s="1">
-        <v>4603.0467</v>
+        <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>81414.0879</v>
+        <v>71462.8355</v>
       </c>
       <c r="I9" s="1">
-        <v>79633.78479999999</v>
+        <v>1084.6401</v>
       </c>
       <c r="J9" s="1">
-        <v>17.3002</v>
+        <v>72547.47560000001</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>69644.2341</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>17.2369</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10003.1269</v>
       </c>
-      <c r="O9" s="1">
-        <v>1343.6154</v>
-      </c>
-      <c r="P9" s="1">
-        <v>82757.70329999999</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0043</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2663,43 +2648,43 @@
         <v>18.0055</v>
       </c>
       <c r="E10" s="1">
-        <v>91821.1583</v>
+        <v>4603.0467</v>
       </c>
       <c r="F10" s="1">
         <v>523.1331</v>
       </c>
       <c r="G10" s="1">
-        <v>5126.1798</v>
+        <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>91821.1583</v>
+        <v>82450.694</v>
       </c>
       <c r="I10" s="1">
-        <v>89053.05740000001</v>
+        <v>1081.5131</v>
       </c>
       <c r="J10" s="1">
-        <v>17.3722</v>
+        <v>83532.2071</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>79063.5067</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>17.1763</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-9419.2726</v>
       </c>
-      <c r="O10" s="1">
-        <v>1924.3428</v>
-      </c>
-      <c r="P10" s="1">
-        <v>93745.50109999999</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0106</v>
+        <v>0.0119</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2716,43 +2701,43 @@
         <v>18.1364</v>
       </c>
       <c r="E11" s="1">
-        <v>102280.2641</v>
+        <v>5126.1798</v>
       </c>
       <c r="F11" s="1">
         <v>542.7351</v>
       </c>
       <c r="G11" s="1">
-        <v>5668.9149</v>
+        <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>102280.2641</v>
+        <v>92488.07429999999</v>
       </c>
       <c r="I11" s="1">
-        <v>98896.3186</v>
+        <v>1662.2405</v>
       </c>
       <c r="J11" s="1">
-        <v>17.4454</v>
+        <v>94150.31479999999</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>88906.76790000001</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>17.3437</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-9843.261200000001</v>
       </c>
-      <c r="O11" s="1">
-        <v>2081.0817</v>
-      </c>
-      <c r="P11" s="1">
-        <v>104361.3457</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0059</v>
+        <v>0.0066</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2769,43 +2754,43 @@
         <v>18.2605</v>
       </c>
       <c r="E12" s="1">
-        <v>112791.6654</v>
+        <v>5668.9149</v>
       </c>
       <c r="F12" s="1">
         <v>540.0968</v>
       </c>
       <c r="G12" s="1">
-        <v>6209.0117</v>
+        <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>112791.6654</v>
+        <v>102980.3751</v>
       </c>
       <c r="I12" s="1">
-        <v>108758.7561</v>
+        <v>1818.9793</v>
       </c>
       <c r="J12" s="1">
-        <v>17.5163</v>
+        <v>104799.3544</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>98769.20540000001</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>17.4229</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-9862.4375</v>
       </c>
-      <c r="O12" s="1">
-        <v>2218.6442</v>
-      </c>
-      <c r="P12" s="1">
-        <v>115010.3096</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0057</v>
+        <v>0.0062</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2822,43 +2807,43 @@
         <v>18.0221</v>
       </c>
       <c r="E13" s="1">
+        <v>6209.0117</v>
+      </c>
+      <c r="F13" s="1">
+        <v>663.4378</v>
+      </c>
+      <c r="G13" s="1">
         <v>123355.6237</v>
       </c>
-      <c r="F13" s="1">
-        <v>671.3707000000001</v>
-      </c>
-      <c r="G13" s="1">
-        <v>6880.3824</v>
-      </c>
       <c r="H13" s="1">
-        <v>123355.6237</v>
+        <v>111318.8878</v>
       </c>
       <c r="I13" s="1">
-        <v>120858.2652</v>
+        <v>1956.5418</v>
       </c>
       <c r="J13" s="1">
-        <v>17.5656</v>
+        <v>113275.4297</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>110725.7472</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>17.8331</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-12099.5091</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>119.1351</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>123474.7588</v>
+        <v>-11956.5418</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0123</v>
+        <v>-0.0133</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2875,43 +2860,43 @@
         <v>18.2846</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>6872.4495</v>
       </c>
       <c r="F14" s="1">
-        <v>-6880.3824</v>
+        <v>-6872.4495</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>125008.482</v>
       </c>
       <c r="I14" s="1">
-        <v>120858.2652</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>17.5656</v>
+        <v>125008.482</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>110725.7472</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>16.1115</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>125152.7796</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>125271.9147</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>125271.9147</v>
+        <v>125008.482</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0615</v>
+        <v>0.0141</v>
       </c>
     </row>
   </sheetData>
@@ -2931,24 +2916,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2996,7 +2981,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3013,43 +2998,37 @@
         <v>16.743</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>597.2645</v>
       </c>
       <c r="G2" s="1">
-        <v>597.2645</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.1574</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>16.743</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1574</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3066,43 +3045,43 @@
         <v>17.6195</v>
       </c>
       <c r="E3" s="1">
-        <v>20100</v>
+        <v>597.2645</v>
       </c>
       <c r="F3" s="1">
         <v>549.4656</v>
       </c>
       <c r="G3" s="1">
-        <v>1146.7301</v>
+        <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>20100</v>
+        <v>10468.9124</v>
       </c>
       <c r="I3" s="1">
-        <v>19681.3088</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>17.163</v>
+        <v>10468.9124</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9681.308800000001</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>16.2094</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9681.308800000001</v>
       </c>
-      <c r="O3" s="1">
-        <v>318.6912</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20418.6912</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0236</v>
+        <v>0.0469</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3119,43 +3098,43 @@
         <v>17.6646</v>
       </c>
       <c r="E4" s="1">
-        <v>30301</v>
+        <v>1146.7301</v>
       </c>
       <c r="F4" s="1">
         <v>577.5628</v>
       </c>
       <c r="G4" s="1">
-        <v>1724.2929</v>
+        <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>30301</v>
+        <v>20151.4882</v>
       </c>
       <c r="I4" s="1">
-        <v>29883.7253</v>
+        <v>318.6912</v>
       </c>
       <c r="J4" s="1">
-        <v>17.331</v>
+        <v>20470.1794</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>19883.7253</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>17.3395</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10202.4166</v>
       </c>
-      <c r="O4" s="1">
-        <v>116.2747</v>
-      </c>
-      <c r="P4" s="1">
-        <v>30417.2747</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3172,43 +3151,43 @@
         <v>17.2588</v>
       </c>
       <c r="E5" s="1">
-        <v>40604.01</v>
+        <v>1724.2929</v>
       </c>
       <c r="F5" s="1">
         <v>586.1517</v>
       </c>
       <c r="G5" s="1">
-        <v>2310.4446</v>
+        <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>39668.717</v>
+        <v>29604.9029</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>116.2747</v>
       </c>
       <c r="J5" s="1">
-        <v>17.3127</v>
+        <v>29721.1776</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>17.3984</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10116.2747</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>39668.717</v>
-      </c>
       <c r="Q5" s="3">
-        <v>-0.0185</v>
+        <v>-0.0246</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3225,43 +3204,43 @@
         <v>16.8469</v>
       </c>
       <c r="E6" s="1">
-        <v>51010.0501</v>
+        <v>2310.4446</v>
       </c>
       <c r="F6" s="1">
         <v>593.581</v>
       </c>
       <c r="G6" s="1">
-        <v>2904.0256</v>
+        <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>48670.3082</v>
+        <v>38722.1278</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>17.2175</v>
+        <v>38722.1278</v>
       </c>
       <c r="K6" s="1">
+        <v>40000</v>
+      </c>
+      <c r="L6" s="1">
+        <v>17.3127</v>
+      </c>
+      <c r="M6" s="1">
         <v>0.47</v>
       </c>
-      <c r="L6" s="1">
-        <v>977.3181</v>
-      </c>
-      <c r="M6" s="1">
-        <v>10000</v>
-      </c>
       <c r="N6" s="1">
-        <v>-9022.6819</v>
+        <v>729.3759</v>
       </c>
       <c r="O6" s="1">
-        <v>977.3181</v>
+        <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>49647.6263</v>
+        <v>-9270.624100000001</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0004</v>
+        <v>-0.0252</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3278,43 +3257,43 @@
         <v>16.9739</v>
       </c>
       <c r="E7" s="1">
+        <v>2904.0256</v>
+      </c>
+      <c r="F7" s="1">
+        <v>632.1102</v>
+      </c>
+      <c r="G7" s="1">
         <v>61520.1506</v>
       </c>
-      <c r="F7" s="1">
-        <v>646.7175</v>
-      </c>
-      <c r="G7" s="1">
-        <v>3550.7431</v>
-      </c>
       <c r="H7" s="1">
-        <v>59957.1385</v>
+        <v>49036.7963</v>
       </c>
       <c r="I7" s="1">
-        <v>60977.3181</v>
+        <v>729.3759</v>
       </c>
       <c r="J7" s="1">
-        <v>17.1731</v>
+        <v>49766.1722</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50729.3759</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>17.4686</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
-        <v>-10977.3181</v>
+        <v>0</v>
       </c>
       <c r="O7" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>59957.1385</v>
+        <v>-10729.3759</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0052</v>
+        <v>0.0214</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3331,43 +3310,43 @@
         <v>17.6787</v>
       </c>
       <c r="E8" s="1">
+        <v>3536.1359</v>
+      </c>
+      <c r="F8" s="1">
+        <v>565.4933</v>
+      </c>
+      <c r="G8" s="1">
         <v>72135.3521</v>
       </c>
-      <c r="F8" s="1">
-        <v>550.886</v>
-      </c>
-      <c r="G8" s="1">
-        <v>4101.6292</v>
-      </c>
       <c r="H8" s="1">
-        <v>72135.3521</v>
+        <v>62190.0217</v>
       </c>
       <c r="I8" s="1">
-        <v>70716.2668</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>17.241</v>
+        <v>62190.0217</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60726.562</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>17.1731</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
-        <v>-9738.948700000001</v>
+        <v>0</v>
       </c>
       <c r="O8" s="1">
-        <v>261.0513</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>72396.4034</v>
+        <v>-9997.186100000001</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0349</v>
+        <v>0.0406</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3384,43 +3363,43 @@
         <v>17.7792</v>
       </c>
       <c r="E9" s="1">
+        <v>4101.6292</v>
+      </c>
+      <c r="F9" s="1">
+        <v>562.6133</v>
+      </c>
+      <c r="G9" s="1">
         <v>82856.7056</v>
       </c>
-      <c r="F9" s="1">
-        <v>577.138</v>
-      </c>
-      <c r="G9" s="1">
-        <v>4678.7671</v>
-      </c>
       <c r="H9" s="1">
-        <v>82753.3542</v>
+        <v>72545.515</v>
       </c>
       <c r="I9" s="1">
-        <v>80977.3181</v>
+        <v>2.8139</v>
       </c>
       <c r="J9" s="1">
-        <v>17.3074</v>
+        <v>72548.32889999999</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70729.3759</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>17.2442</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>-10261.0513</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>82753.3542</v>
+        <v>-10002.8139</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0043</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3437,43 +3416,43 @@
         <v>18.0055</v>
       </c>
       <c r="E10" s="1">
+        <v>4664.2424</v>
+      </c>
+      <c r="F10" s="1">
+        <v>555.3859</v>
+      </c>
+      <c r="G10" s="1">
         <v>93685.2727</v>
       </c>
-      <c r="F10" s="1">
-        <v>551.4822</v>
-      </c>
-      <c r="G10" s="1">
-        <v>5230.2494</v>
-      </c>
       <c r="H10" s="1">
-        <v>93685.2727</v>
+        <v>83546.8434</v>
       </c>
       <c r="I10" s="1">
-        <v>90907.0315</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>17.381</v>
+        <v>83546.8434</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80729.3759</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>17.3081</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>-9929.7135</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>70.2865</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>93755.5592</v>
+        <v>-10000</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0108</v>
+        <v>0.0121</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3490,43 +3469,43 @@
         <v>18.1364</v>
       </c>
       <c r="E11" s="1">
+        <v>5219.6283</v>
+      </c>
+      <c r="F11" s="1">
+        <v>551.3773</v>
+      </c>
+      <c r="G11" s="1">
         <v>104622.1254</v>
       </c>
-      <c r="F11" s="1">
-        <v>555.2528</v>
-      </c>
-      <c r="G11" s="1">
-        <v>5785.5021</v>
-      </c>
       <c r="H11" s="1">
-        <v>104383.7654</v>
+        <v>94174.0995</v>
       </c>
       <c r="I11" s="1">
-        <v>100977.3181</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>17.4535</v>
+        <v>94174.0995</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90729.3759</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>17.3823</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>-10070.2865</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>104383.7654</v>
+        <v>-10000</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0061</v>
+        <v>0.0067</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3543,43 +3522,43 @@
         <v>18.2605</v>
       </c>
       <c r="E12" s="1">
-        <v>115668.3467</v>
+        <v>5771.0056</v>
       </c>
       <c r="F12" s="1">
         <v>547.6301</v>
       </c>
       <c r="G12" s="1">
-        <v>6333.1323</v>
+        <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>115046.4143</v>
+        <v>104834.9341</v>
       </c>
       <c r="I12" s="1">
-        <v>110977.3181</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>17.5233</v>
+        <v>104834.9341</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100729.3759</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>17.4544</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-10000</v>
       </c>
-      <c r="O12" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>115046.4143</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0058</v>
+        <v>0.0063</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3596,43 +3575,43 @@
         <v>18.0221</v>
       </c>
       <c r="E13" s="1">
-        <v>126825.0301</v>
+        <v>6318.6358</v>
       </c>
       <c r="F13" s="1">
         <v>554.8742999999999</v>
       </c>
       <c r="G13" s="1">
-        <v>6888.0066</v>
+        <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>123492.3146</v>
+        <v>113284.2931</v>
       </c>
       <c r="I13" s="1">
-        <v>120977.3181</v>
+        <v>-0</v>
       </c>
       <c r="J13" s="1">
-        <v>17.5635</v>
+        <v>113284.2931</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>110729.3759</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>17.5243</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-10000</v>
       </c>
-      <c r="O13" s="1">
-        <v>0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>123492.3146</v>
-      </c>
       <c r="Q13" s="3">
-        <v>-0.0124</v>
+        <v>-0.0135</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3649,43 +3628,43 @@
         <v>18.2846</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>6873.5101</v>
       </c>
       <c r="F14" s="1">
-        <v>-6888.0066</v>
+        <v>-6873.5101</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>125027.7732</v>
       </c>
       <c r="I14" s="1">
-        <v>120977.3181</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>17.5635</v>
+        <v>125027.7732</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>110729.3759</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>16.1096</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>125291.4619</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>125291.4619</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>125291.4619</v>
+        <v>125027.7732</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0614</v>
+        <v>0.0141</v>
       </c>
     </row>
   </sheetData>
@@ -3705,24 +3684,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3770,7 +3749,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3787,43 +3766,37 @@
         <v>16.743</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>597.2645</v>
       </c>
       <c r="G2" s="1">
-        <v>597.2645</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.1574</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>16.743</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1574</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3840,43 +3813,43 @@
         <v>17.6195</v>
       </c>
       <c r="E3" s="1">
-        <v>20150</v>
+        <v>597.2645</v>
       </c>
       <c r="F3" s="1">
         <v>552.3181</v>
       </c>
       <c r="G3" s="1">
-        <v>1149.5827</v>
+        <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>20150</v>
+        <v>10468.9124</v>
       </c>
       <c r="I3" s="1">
-        <v>19731.5695</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>17.1641</v>
+        <v>10468.9124</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9731.5695</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>16.2936</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9731.5695</v>
       </c>
-      <c r="O3" s="1">
-        <v>268.4305</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20418.4305</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0236</v>
+        <v>0.0469</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3893,43 +3866,43 @@
         <v>17.6646</v>
       </c>
       <c r="E4" s="1">
-        <v>30452.25</v>
+        <v>1149.5827</v>
       </c>
       <c r="F4" s="1">
         <v>583.3172</v>
       </c>
       <c r="G4" s="1">
-        <v>1732.8999</v>
+        <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>30452.25</v>
+        <v>20201.6163</v>
       </c>
       <c r="I4" s="1">
-        <v>30035.6351</v>
+        <v>268.4305</v>
       </c>
       <c r="J4" s="1">
-        <v>17.3326</v>
+        <v>20470.0468</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20035.6351</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>17.4286</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10304.0656</v>
       </c>
-      <c r="O4" s="1">
-        <v>-35.6351</v>
-      </c>
-      <c r="P4" s="1">
-        <v>30416.6149</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.0001</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3946,43 +3919,43 @@
         <v>17.2588</v>
       </c>
       <c r="E5" s="1">
-        <v>40909.0337</v>
+        <v>1732.8999</v>
       </c>
       <c r="F5" s="1">
         <v>577.3498</v>
       </c>
       <c r="G5" s="1">
-        <v>2310.2497</v>
+        <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>39665.3704</v>
+        <v>29752.6783</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>-35.6351</v>
       </c>
       <c r="J5" s="1">
-        <v>17.3141</v>
+        <v>29717.0432</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>17.312</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-9964.3649</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>39665.3704</v>
-      </c>
       <c r="Q5" s="3">
-        <v>-0.0186</v>
+        <v>-0.0247</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3999,43 +3972,43 @@
         <v>16.8469</v>
       </c>
       <c r="E6" s="1">
-        <v>51522.6693</v>
+        <v>2310.2497</v>
       </c>
       <c r="F6" s="1">
         <v>593.581</v>
       </c>
       <c r="G6" s="1">
-        <v>2903.8307</v>
+        <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>48667.0415</v>
+        <v>38718.8611</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>17.2186</v>
+        <v>38718.8611</v>
       </c>
       <c r="K6" s="1">
+        <v>40000</v>
+      </c>
+      <c r="L6" s="1">
+        <v>17.3141</v>
+      </c>
+      <c r="M6" s="1">
         <v>0.47</v>
       </c>
-      <c r="L6" s="1">
-        <v>977.2356</v>
-      </c>
-      <c r="M6" s="1">
-        <v>10000</v>
-      </c>
       <c r="N6" s="1">
-        <v>-9022.7644</v>
+        <v>733.0167</v>
       </c>
       <c r="O6" s="1">
-        <v>977.2356</v>
+        <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>49644.2771</v>
+        <v>-9266.9833</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0004</v>
+        <v>-0.0251</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4052,43 +4025,43 @@
         <v>16.9739</v>
       </c>
       <c r="E7" s="1">
+        <v>2903.8307</v>
+      </c>
+      <c r="F7" s="1">
+        <v>632.3247</v>
+      </c>
+      <c r="G7" s="1">
         <v>62295.5093</v>
       </c>
-      <c r="F7" s="1">
-        <v>646.7126</v>
-      </c>
-      <c r="G7" s="1">
-        <v>3550.5434</v>
-      </c>
       <c r="H7" s="1">
-        <v>59953.7652</v>
+        <v>49033.5049</v>
       </c>
       <c r="I7" s="1">
-        <v>60977.2356</v>
+        <v>733.0167</v>
       </c>
       <c r="J7" s="1">
-        <v>17.1741</v>
+        <v>49766.5216</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50733.0167</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>17.4711</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
-        <v>-10977.2356</v>
+        <v>0</v>
       </c>
       <c r="O7" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>59953.7652</v>
+        <v>-10733.0167</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0052</v>
+        <v>0.0215</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4105,43 +4078,43 @@
         <v>17.6787</v>
       </c>
       <c r="E8" s="1">
-        <v>73229.94190000001</v>
+        <v>3536.1555</v>
       </c>
       <c r="F8" s="1">
         <v>565.6525</v>
       </c>
       <c r="G8" s="1">
-        <v>4116.1958</v>
+        <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>72391.5358</v>
+        <v>62190.366</v>
       </c>
       <c r="I8" s="1">
-        <v>70977.2356</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>17.2434</v>
+        <v>62190.366</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60733.0167</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>17.1749</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10000</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>72391.5358</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0348</v>
+        <v>0.0406</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4158,43 +4131,43 @@
         <v>17.7792</v>
       </c>
       <c r="E9" s="1">
-        <v>84328.39109999999</v>
+        <v>4101.8079</v>
       </c>
       <c r="F9" s="1">
         <v>562.455</v>
       </c>
       <c r="G9" s="1">
-        <v>4678.6508</v>
+        <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>82751.2971</v>
+        <v>72548.6764</v>
       </c>
       <c r="I9" s="1">
-        <v>80977.2356</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>17.3078</v>
+        <v>72548.6764</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70733.01669999999</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>17.2444</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10000</v>
       </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>82751.2971</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0044</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4211,43 +4184,43 @@
         <v>18.0055</v>
       </c>
       <c r="E10" s="1">
-        <v>95593.31690000001</v>
+        <v>4664.2629</v>
       </c>
       <c r="F10" s="1">
         <v>555.3859</v>
       </c>
       <c r="G10" s="1">
-        <v>5234.0367</v>
+        <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>93753.11169999999</v>
+        <v>83547.2101</v>
       </c>
       <c r="I10" s="1">
-        <v>90977.2356</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>17.3818</v>
+        <v>83547.2101</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80733.01669999999</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>17.3088</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10000</v>
       </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>93753.11169999999</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0108</v>
+        <v>0.0121</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4264,43 +4237,43 @@
         <v>18.1364</v>
       </c>
       <c r="E11" s="1">
-        <v>107027.2167</v>
+        <v>5219.6488</v>
       </c>
       <c r="F11" s="1">
         <v>551.3773</v>
       </c>
       <c r="G11" s="1">
-        <v>5785.414</v>
+        <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>104382.1753</v>
+        <v>94174.46890000001</v>
       </c>
       <c r="I11" s="1">
-        <v>100977.2356</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>17.4538</v>
+        <v>94174.46890000001</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90733.01669999999</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>17.383</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10000</v>
       </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>104382.1753</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0061</v>
+        <v>0.0067</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4317,43 +4290,43 @@
         <v>18.2605</v>
       </c>
       <c r="E12" s="1">
-        <v>118632.6249</v>
+        <v>5771.0261</v>
       </c>
       <c r="F12" s="1">
         <v>547.6301</v>
       </c>
       <c r="G12" s="1">
-        <v>6333.0441</v>
+        <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>115044.8134</v>
+        <v>104835.306</v>
       </c>
       <c r="I12" s="1">
-        <v>110977.2356</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>17.5235</v>
+        <v>104835.306</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100733.0167</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>17.455</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-10000</v>
       </c>
-      <c r="O12" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>115044.8134</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0058</v>
+        <v>0.0063</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4370,43 +4343,43 @@
         <v>18.0221</v>
       </c>
       <c r="E13" s="1">
-        <v>130412.1143</v>
+        <v>6318.6562</v>
       </c>
       <c r="F13" s="1">
         <v>554.8742999999999</v>
       </c>
       <c r="G13" s="1">
-        <v>6887.9184</v>
+        <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>123490.7345</v>
+        <v>113284.6602</v>
       </c>
       <c r="I13" s="1">
-        <v>120977.2356</v>
+        <v>-0</v>
       </c>
       <c r="J13" s="1">
-        <v>17.5637</v>
+        <v>113284.6602</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>110733.0167</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>17.5248</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-10000</v>
       </c>
-      <c r="O13" s="1">
-        <v>0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>123490.7345</v>
-      </c>
       <c r="Q13" s="3">
-        <v>-0.0124</v>
+        <v>-0.0135</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4423,43 +4396,43 @@
         <v>18.2846</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>6873.5305</v>
       </c>
       <c r="F14" s="1">
-        <v>-6887.9184</v>
+        <v>-6873.5305</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>125028.1456</v>
       </c>
       <c r="I14" s="1">
-        <v>120977.2356</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>17.5637</v>
+        <v>125028.1456</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>110733.0167</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>16.1101</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>125289.8588</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>125289.8588</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>125289.8588</v>
+        <v>125028.1456</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0614</v>
+        <v>0.0141</v>
       </c>
     </row>
   </sheetData>
@@ -4489,24 +4462,24 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1">
         <v>18.2353</v>
@@ -4514,131 +4487,131 @@
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>17.5705</v>
+        <v>16.1147</v>
       </c>
       <c r="D3" s="1">
-        <v>17.5546</v>
+        <v>16.0624</v>
       </c>
       <c r="E3" s="1">
-        <v>17.5656</v>
+        <v>16.1115</v>
       </c>
       <c r="F3" s="1">
-        <v>17.5635</v>
+        <v>16.1096</v>
       </c>
       <c r="G3" s="1">
-        <v>17.5637</v>
+        <v>16.1101</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3">
         <v>0.0912</v>
       </c>
       <c r="C4" s="3">
-        <v>-0.0029</v>
+        <v>0.08939999999999999</v>
       </c>
       <c r="D4" s="3">
-        <v>-0.0027</v>
+        <v>0.0893</v>
       </c>
       <c r="E4" s="3">
-        <v>-0.0024</v>
+        <v>0.0898</v>
       </c>
       <c r="F4" s="3">
-        <v>-0.0022</v>
+        <v>0.09</v>
       </c>
       <c r="G4" s="3">
-        <v>-0.0023</v>
+        <v>0.08989999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3">
         <v>0.07489999999999999</v>
       </c>
       <c r="C5" s="3">
-        <v>0.079</v>
+        <v>0.074</v>
       </c>
       <c r="D5" s="3">
-        <v>0.0794</v>
+        <v>0.07389999999999999</v>
       </c>
       <c r="E5" s="3">
-        <v>0.07920000000000001</v>
+        <v>0.074</v>
       </c>
       <c r="F5" s="3">
-        <v>0.07920000000000001</v>
+        <v>0.0742</v>
       </c>
       <c r="G5" s="3">
-        <v>0.07920000000000001</v>
+        <v>0.0743</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="4">
         <v>0.9459</v>
       </c>
       <c r="C6" s="4">
-        <v>-0.2945</v>
+        <v>0.9326</v>
       </c>
       <c r="D6" s="4">
-        <v>-0.2896</v>
+        <v>0.9344</v>
       </c>
       <c r="E6" s="4">
-        <v>-0.2867</v>
+        <v>0.9377</v>
       </c>
       <c r="F6" s="4">
-        <v>-0.2846</v>
+        <v>0.9385</v>
       </c>
       <c r="G6" s="4">
-        <v>-0.2855</v>
+        <v>0.9371</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>0.082</v>
+        <v>-0.0794</v>
       </c>
       <c r="D7" s="3">
-        <v>0.08400000000000001</v>
+        <v>0.0794</v>
       </c>
       <c r="E7" s="3">
-        <v>0.0832</v>
+        <v>0.0789</v>
       </c>
       <c r="F7" s="3">
-        <v>0.08260000000000001</v>
+        <v>0.0784</v>
       </c>
       <c r="G7" s="3">
-        <v>0.0825</v>
+        <v>0.0784</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
       <c r="A8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>977.2721</v>
+        <v>732.1798</v>
       </c>
       <c r="D8" s="1">
-        <v>977.4820999999999</v>
+        <v>722.1305</v>
       </c>
       <c r="E8" s="1">
-        <v>977.4002</v>
+        <v>725.7472</v>
       </c>
       <c r="F8" s="1">
-        <v>977.3181</v>
+        <v>729.3759</v>
       </c>
       <c r="G8" s="1">
-        <v>977.2356</v>
+        <v>733.0167</v>
       </c>
     </row>
   </sheetData>
